--- a/state_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
+++ b/state_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U237"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.00166</v>
+        <v>0.00172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0066314884479982</v>
+        <v>0.0066588448357747</v>
       </c>
       <c r="H2" t="n">
         <v>0.027</v>
@@ -581,7 +581,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>0.00125</v>
+        <v>0.0013</v>
       </c>
       <c r="M2" t="n">
         <v>0.01372</v>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.00166</v>
+        <v>0.00172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0066314884479982</v>
+        <v>0.0066588448357747</v>
       </c>
       <c r="H3" t="n">
         <v>0.027</v>
@@ -662,7 +662,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.00125</v>
+        <v>0.0013</v>
       </c>
       <c r="M3" t="n">
         <v>0.01372</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0062</v>
+        <v>0.00628</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0086653297204034</v>
+        <v>0.0086958634951168</v>
       </c>
       <c r="H8" t="n">
         <v>0.05</v>
@@ -1083,7 +1083,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.00377</v>
+        <v>0.00379</v>
       </c>
       <c r="M8" t="n">
         <v>0.01386</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0062</v>
+        <v>0.00628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0086653297204034</v>
+        <v>0.0086958634951168</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00377</v>
+        <v>0.00379</v>
       </c>
       <c r="M9" t="n">
         <v>0.01386</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.02606</v>
+        <v>0.02623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.119083945900126</v>
+        <v>0.119202363428724</v>
       </c>
       <c r="H10" t="n">
         <v>0.72</v>
@@ -1241,10 +1241,10 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.01098</v>
+        <v>0.011</v>
       </c>
       <c r="M10" t="n">
-        <v>0.26992</v>
+        <v>0.27006</v>
       </c>
       <c r="N10" t="n">
         <v>0.43034</v>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.02606</v>
+        <v>0.02623</v>
       </c>
       <c r="G11" t="n">
-        <v>0.119083945900126</v>
+        <v>0.119202363428724</v>
       </c>
       <c r="H11" t="n">
         <v>0.72</v>
@@ -1318,10 +1318,10 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.01098</v>
+        <v>0.011</v>
       </c>
       <c r="M11" t="n">
-        <v>0.26992</v>
+        <v>0.27006</v>
       </c>
       <c r="N11" t="n">
         <v>0.43034</v>
@@ -1388,13 +1388,13 @@
         <v>0.475</v>
       </c>
       <c r="G12" t="n">
-        <v>0.71284574252093</v>
+        <v>0.708548416517092</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.76786</v>
+        <v>2.68424</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.998</v>
+        <v>1.97987</v>
       </c>
       <c r="O12" t="n">
         <v>1879408</v>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.00201</v>
+        <v>0.00207</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0062412095465327</v>
+        <v>0.0062681496248075</v>
       </c>
       <c r="H13" t="n">
         <v>0.027</v>
@@ -1480,7 +1480,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.00149</v>
+        <v>0.00154</v>
       </c>
       <c r="M13" t="n">
         <v>0.01168</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.00201</v>
+        <v>0.00207</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0062412095465327</v>
+        <v>0.0062681496248075</v>
       </c>
       <c r="H14" t="n">
         <v>0.027</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.00149</v>
+        <v>0.00154</v>
       </c>
       <c r="M14" t="n">
         <v>0.01168</v>
@@ -1971,7 +1971,7 @@
         <v>0.00848</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0157299743662771</v>
+        <v>0.0157525428084566</v>
       </c>
       <c r="H19" t="n">
         <v>0.09203529230025211</v>
@@ -1982,7 +1982,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.00503</v>
+        <v>0.00511</v>
       </c>
       <c r="M19" t="n">
         <v>0.02437</v>
@@ -2052,7 +2052,7 @@
         <v>0.00848</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0157299743662771</v>
+        <v>0.0157525428084566</v>
       </c>
       <c r="H20" t="n">
         <v>0.09203529230025211</v>
@@ -2063,7 +2063,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.00503</v>
+        <v>0.00511</v>
       </c>
       <c r="M20" t="n">
         <v>0.02437</v>
@@ -2129,7 +2129,7 @@
         <v>0.033</v>
       </c>
       <c r="G21" t="n">
-        <v>0.120779438274006</v>
+        <v>0.120866964273405</v>
       </c>
       <c r="H21" t="n">
         <v>0.72</v>
@@ -2140,10 +2140,10 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.0125</v>
+        <v>0.01269</v>
       </c>
       <c r="M21" t="n">
-        <v>0.26948</v>
+        <v>0.26964</v>
       </c>
       <c r="N21" t="n">
         <v>0.40856</v>
@@ -2206,7 +2206,7 @@
         <v>0.033</v>
       </c>
       <c r="G22" t="n">
-        <v>0.120779438274006</v>
+        <v>0.120866964273405</v>
       </c>
       <c r="H22" t="n">
         <v>0.72</v>
@@ -2217,10 +2217,10 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.0125</v>
+        <v>0.01269</v>
       </c>
       <c r="M22" t="n">
-        <v>0.26948</v>
+        <v>0.26964</v>
       </c>
       <c r="N22" t="n">
         <v>0.40856</v>
@@ -2287,13 +2287,13 @@
         <v>0.32</v>
       </c>
       <c r="G23" t="n">
-        <v>0.641462764315907</v>
+        <v>0.63819679655299</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.66059</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2368,7 +2368,7 @@
         <v>0.005</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0061007560003445</v>
+        <v>0.0061265014999698</v>
       </c>
       <c r="H24" t="n">
         <v>0.027</v>
@@ -2379,7 +2379,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00181</v>
+        <v>0.00187</v>
       </c>
       <c r="M24" t="n">
         <v>0.01064</v>
@@ -2449,7 +2449,7 @@
         <v>0.005</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0061007560003445</v>
+        <v>0.0061265014999698</v>
       </c>
       <c r="H25" t="n">
         <v>0.027</v>
@@ -2460,7 +2460,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.00181</v>
+        <v>0.00187</v>
       </c>
       <c r="M25" t="n">
         <v>0.01064</v>
@@ -2870,7 +2870,7 @@
         <v>0.01079</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0183471064341747</v>
+        <v>0.0183653195629511</v>
       </c>
       <c r="H30" t="n">
         <v>0.09203529230025211</v>
@@ -2951,7 +2951,7 @@
         <v>0.01079</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0183471064341747</v>
+        <v>0.0183653195629511</v>
       </c>
       <c r="H31" t="n">
         <v>0.09203529230025211</v>
@@ -3032,7 +3032,7 @@
         <v>0.0215</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0910730491099072</v>
+        <v>0.0911227906069647</v>
       </c>
       <c r="H32" t="n">
         <v>0.414</v>
@@ -3043,7 +3043,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.00544</v>
+        <v>0.00567</v>
       </c>
       <c r="M32" t="n">
         <v>0.204</v>
@@ -3113,7 +3113,7 @@
         <v>0.0215</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0910730491099072</v>
+        <v>0.0911227906069647</v>
       </c>
       <c r="H33" t="n">
         <v>0.414</v>
@@ -3124,7 +3124,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.00544</v>
+        <v>0.00567</v>
       </c>
       <c r="M33" t="n">
         <v>0.204</v>
@@ -3190,7 +3190,7 @@
         <v>0.033</v>
       </c>
       <c r="G34" t="n">
-        <v>0.114187140700074</v>
+        <v>0.114247937182356</v>
       </c>
       <c r="H34" t="n">
         <v>0.72</v>
@@ -3204,7 +3204,7 @@
         <v>0.0145</v>
       </c>
       <c r="M34" t="n">
-        <v>0.25768</v>
+        <v>0.258</v>
       </c>
       <c r="N34" t="n">
         <v>0.3193</v>
@@ -3267,7 +3267,7 @@
         <v>0.033</v>
       </c>
       <c r="G35" t="n">
-        <v>0.114187140700074</v>
+        <v>0.114247937182356</v>
       </c>
       <c r="H35" t="n">
         <v>0.72</v>
@@ -3281,7 +3281,7 @@
         <v>0.0145</v>
       </c>
       <c r="M35" t="n">
-        <v>0.25768</v>
+        <v>0.258</v>
       </c>
       <c r="N35" t="n">
         <v>0.3193</v>
@@ -3498,7 +3498,7 @@
         <v>0.034</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0753072805794847</v>
+        <v>0.07530378745628399</v>
       </c>
       <c r="H38" t="n">
         <v>0.513</v>
@@ -3575,7 +3575,7 @@
         <v>0.034</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0753072805794847</v>
+        <v>0.07530378745628399</v>
       </c>
       <c r="H39" t="n">
         <v>0.513</v>
@@ -3656,13 +3656,13 @@
         <v>0.34</v>
       </c>
       <c r="G40" t="n">
-        <v>0.662707885747865</v>
+        <v>0.659717504570945</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.686</v>
+        <v>2.64856</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -3737,7 +3737,7 @@
         <v>0.005</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006209998078263</v>
+        <v>0.0062299051290731</v>
       </c>
       <c r="H41" t="n">
         <v>0.024</v>
@@ -3748,7 +3748,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.00199</v>
+        <v>0.002</v>
       </c>
       <c r="M41" t="n">
         <v>0.012</v>
@@ -3818,7 +3818,7 @@
         <v>0.005</v>
       </c>
       <c r="G42" t="n">
-        <v>0.006209998078263</v>
+        <v>0.0062299051290731</v>
       </c>
       <c r="H42" t="n">
         <v>0.024</v>
@@ -3829,7 +3829,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.00199</v>
+        <v>0.002</v>
       </c>
       <c r="M42" t="n">
         <v>0.012</v>
@@ -4316,7 +4316,7 @@
         <v>0.0115</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0194661902766601</v>
+        <v>0.0194720245296373</v>
       </c>
       <c r="H48" t="n">
         <v>0.09203529230025211</v>
@@ -4397,7 +4397,7 @@
         <v>0.0115</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0194661902766601</v>
+        <v>0.0194720245296373</v>
       </c>
       <c r="H49" t="n">
         <v>0.09203529230025211</v>
@@ -4478,7 +4478,7 @@
         <v>0.017</v>
       </c>
       <c r="G50" t="n">
-        <v>0.103700448252985</v>
+        <v>0.103720645393441</v>
       </c>
       <c r="H50" t="n">
         <v>0.6398</v>
@@ -4489,7 +4489,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.00355</v>
+        <v>0.00365</v>
       </c>
       <c r="M50" t="n">
         <v>0.21476</v>
@@ -4559,7 +4559,7 @@
         <v>0.017</v>
       </c>
       <c r="G51" t="n">
-        <v>0.103700448252985</v>
+        <v>0.103720645393441</v>
       </c>
       <c r="H51" t="n">
         <v>0.6398</v>
@@ -4570,7 +4570,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.00355</v>
+        <v>0.00365</v>
       </c>
       <c r="M51" t="n">
         <v>0.21476</v>
@@ -4636,10 +4636,10 @@
         <v>0.033</v>
       </c>
       <c r="G52" t="n">
-        <v>0.119096182554869</v>
+        <v>0.119131188475429</v>
       </c>
       <c r="H52" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I52" t="n">
         <v>0.44255</v>
@@ -4650,7 +4650,7 @@
         <v>0.0145</v>
       </c>
       <c r="M52" t="n">
-        <v>0.26081</v>
+        <v>0.26102</v>
       </c>
       <c r="N52" t="n">
         <v>0.34886</v>
@@ -4713,10 +4713,10 @@
         <v>0.033</v>
       </c>
       <c r="G53" t="n">
-        <v>0.119096182554869</v>
+        <v>0.119131188475429</v>
       </c>
       <c r="H53" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I53" t="n">
         <v>0.44255</v>
@@ -4727,7 +4727,7 @@
         <v>0.0145</v>
       </c>
       <c r="M53" t="n">
-        <v>0.26081</v>
+        <v>0.26102</v>
       </c>
       <c r="N53" t="n">
         <v>0.34886</v>
@@ -4944,7 +4944,7 @@
         <v>0.041</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0844715639594934</v>
+        <v>0.0844681300417707</v>
       </c>
       <c r="H56" t="n">
         <v>0.757</v>
@@ -5021,7 +5021,7 @@
         <v>0.041</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0844715639594934</v>
+        <v>0.0844681300417707</v>
       </c>
       <c r="H57" t="n">
         <v>0.757</v>
@@ -5179,13 +5179,13 @@
         <v>0.33</v>
       </c>
       <c r="G59" t="n">
-        <v>0.636001927795116</v>
+        <v>0.63312439119091</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>2.658</v>
+        <v>2.6245</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -5260,7 +5260,7 @@
         <v>0.0055</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0063715418832414</v>
+        <v>0.0063863038286915</v>
       </c>
       <c r="H60" t="n">
         <v>0.024</v>
@@ -5271,7 +5271,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00228</v>
+        <v>0.00234</v>
       </c>
       <c r="M60" t="n">
         <v>0.01164</v>
@@ -5341,7 +5341,7 @@
         <v>0.0055</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0063715418832414</v>
+        <v>0.0063863038286915</v>
       </c>
       <c r="H61" t="n">
         <v>0.024</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00228</v>
+        <v>0.00234</v>
       </c>
       <c r="M61" t="n">
         <v>0.01164</v>
@@ -5839,7 +5839,7 @@
         <v>0.01484</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0217240880195052</v>
+        <v>0.0217246976490921</v>
       </c>
       <c r="H67" t="n">
         <v>0.09203529230025211</v>
@@ -5920,7 +5920,7 @@
         <v>0.01484</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0217240880195052</v>
+        <v>0.0217246976490921</v>
       </c>
       <c r="H68" t="n">
         <v>0.09203529230025211</v>
@@ -6001,7 +6001,7 @@
         <v>0.01275</v>
       </c>
       <c r="G69" t="n">
-        <v>0.102746930420626</v>
+        <v>0.102677786625493</v>
       </c>
       <c r="H69" t="n">
         <v>0.6398</v>
@@ -6012,7 +6012,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.00296</v>
+        <v>0.0031</v>
       </c>
       <c r="M69" t="n">
         <v>0.21602</v>
@@ -6082,7 +6082,7 @@
         <v>0.01275</v>
       </c>
       <c r="G70" t="n">
-        <v>0.102746930420626</v>
+        <v>0.102677786625493</v>
       </c>
       <c r="H70" t="n">
         <v>0.6398</v>
@@ -6093,7 +6093,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.00296</v>
+        <v>0.0031</v>
       </c>
       <c r="M70" t="n">
         <v>0.21602</v>
@@ -6236,10 +6236,10 @@
         <v>0.033</v>
       </c>
       <c r="G72" t="n">
-        <v>0.122172413793103</v>
+        <v>0.122215517241379</v>
       </c>
       <c r="H72" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I72" t="n">
         <v>0.4014</v>
@@ -6250,10 +6250,10 @@
         <v>0.016</v>
       </c>
       <c r="M72" t="n">
-        <v>0.25</v>
+        <v>0.25026</v>
       </c>
       <c r="N72" t="n">
-        <v>0.31318</v>
+        <v>0.31324</v>
       </c>
       <c r="O72" t="n">
         <v>1879408</v>
@@ -6313,10 +6313,10 @@
         <v>0.033</v>
       </c>
       <c r="G73" t="n">
-        <v>0.122172413793103</v>
+        <v>0.122215517241379</v>
       </c>
       <c r="H73" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I73" t="n">
         <v>0.4014</v>
@@ -6327,10 +6327,10 @@
         <v>0.016</v>
       </c>
       <c r="M73" t="n">
-        <v>0.25</v>
+        <v>0.25026</v>
       </c>
       <c r="N73" t="n">
-        <v>0.31318</v>
+        <v>0.31324</v>
       </c>
       <c r="O73" t="n">
         <v>1879408</v>
@@ -6544,7 +6544,7 @@
         <v>0.0415</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0912210736829329</v>
+        <v>0.09121758055973229</v>
       </c>
       <c r="H76" t="n">
         <v>0.757</v>
@@ -6621,7 +6621,7 @@
         <v>0.0415</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0912210736829329</v>
+        <v>0.09121758055973229</v>
       </c>
       <c r="H77" t="n">
         <v>0.757</v>
@@ -6779,7 +6779,7 @@
         <v>0.3</v>
       </c>
       <c r="G79" t="n">
-        <v>0.512905907794735</v>
+        <v>0.512852051227083</v>
       </c>
       <c r="H79" t="n">
         <v>2.45</v>
@@ -6860,7 +6860,7 @@
         <v>0.005</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0055533755889922</v>
+        <v>0.0055683429827003</v>
       </c>
       <c r="H80" t="n">
         <v>0.014</v>
@@ -6871,7 +6871,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00233</v>
+        <v>0.0024</v>
       </c>
       <c r="M80" t="n">
         <v>0.01</v>
@@ -6941,7 +6941,7 @@
         <v>0.005</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0055533755889922</v>
+        <v>0.0055683429827003</v>
       </c>
       <c r="H81" t="n">
         <v>0.014</v>
@@ -6952,7 +6952,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.00233</v>
+        <v>0.0024</v>
       </c>
       <c r="M81" t="n">
         <v>0.01</v>
@@ -7439,7 +7439,7 @@
         <v>0.01663</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0217060932866397</v>
+        <v>0.0217242926862836</v>
       </c>
       <c r="H87" t="n">
         <v>0.09203529230025211</v>
@@ -7520,7 +7520,7 @@
         <v>0.01663</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0217060932866397</v>
+        <v>0.0217242926862836</v>
       </c>
       <c r="H88" t="n">
         <v>0.09203529230025211</v>
@@ -7601,7 +7601,7 @@
         <v>0.011</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08935168610125289</v>
+        <v>0.08924133412265781</v>
       </c>
       <c r="H89" t="n">
         <v>0.6398</v>
@@ -7612,7 +7612,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M89" t="n">
         <v>0.1986</v>
@@ -7682,7 +7682,7 @@
         <v>0.011</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08935168610125289</v>
+        <v>0.08924133412265781</v>
       </c>
       <c r="H90" t="n">
         <v>0.6398</v>
@@ -7693,7 +7693,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M90" t="n">
         <v>0.1986</v>
@@ -7836,10 +7836,10 @@
         <v>0.03</v>
       </c>
       <c r="G92" t="n">
-        <v>0.108073586948277</v>
+        <v>0.108113083138094</v>
       </c>
       <c r="H92" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I92" t="n">
         <v>0.3381</v>
@@ -7850,10 +7850,10 @@
         <v>0.015</v>
       </c>
       <c r="M92" t="n">
-        <v>0.23382</v>
+        <v>0.23408</v>
       </c>
       <c r="N92" t="n">
-        <v>0.2998</v>
+        <v>0.30011</v>
       </c>
       <c r="O92" t="n">
         <v>1879408</v>
@@ -7913,10 +7913,10 @@
         <v>0.03</v>
       </c>
       <c r="G93" t="n">
-        <v>0.108073586948277</v>
+        <v>0.108113083138094</v>
       </c>
       <c r="H93" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I93" t="n">
         <v>0.3381</v>
@@ -7927,10 +7927,10 @@
         <v>0.015</v>
       </c>
       <c r="M93" t="n">
-        <v>0.23382</v>
+        <v>0.23408</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2998</v>
+        <v>0.30011</v>
       </c>
       <c r="O93" t="n">
         <v>1879408</v>
@@ -8144,7 +8144,7 @@
         <v>0.035</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0744207165018663</v>
+        <v>0.0744172825841436</v>
       </c>
       <c r="H96" t="n">
         <v>0.757</v>
@@ -8221,7 +8221,7 @@
         <v>0.035</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0744207165018663</v>
+        <v>0.0744172825841436</v>
       </c>
       <c r="H97" t="n">
         <v>0.757</v>
@@ -8379,7 +8379,7 @@
         <v>0.295</v>
       </c>
       <c r="G99" t="n">
-        <v>0.529217237713058</v>
+        <v>0.529161386457716</v>
       </c>
       <c r="H99" t="n">
         <v>2.45</v>
@@ -8460,7 +8460,7 @@
         <v>0.004</v>
       </c>
       <c r="G100" t="n">
-        <v>0.005289243864904</v>
+        <v>0.0053084604239554</v>
       </c>
       <c r="H100" t="n">
         <v>0.014</v>
@@ -8471,7 +8471,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.00283</v>
+        <v>0.00289</v>
       </c>
       <c r="M100" t="n">
         <v>0.009469999999999999</v>
@@ -8541,7 +8541,7 @@
         <v>0.004</v>
       </c>
       <c r="G101" t="n">
-        <v>0.005289243864904</v>
+        <v>0.0053084604239554</v>
       </c>
       <c r="H101" t="n">
         <v>0.014</v>
@@ -8552,7 +8552,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.00283</v>
+        <v>0.00289</v>
       </c>
       <c r="M101" t="n">
         <v>0.009469999999999999</v>
@@ -9036,10 +9036,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.00487</v>
+        <v>0.00515</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0149043635715429</v>
+        <v>0.014971136693725</v>
       </c>
       <c r="H107" t="n">
         <v>0.09</v>
@@ -9050,7 +9050,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00409</v>
+        <v>0.00443</v>
       </c>
       <c r="M107" t="n">
         <v>0.0315</v>
@@ -9117,10 +9117,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.00487</v>
+        <v>0.00515</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0149043635715429</v>
+        <v>0.014971136693725</v>
       </c>
       <c r="H108" t="n">
         <v>0.09</v>
@@ -9131,7 +9131,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.00409</v>
+        <v>0.00443</v>
       </c>
       <c r="M108" t="n">
         <v>0.0315</v>
@@ -9201,7 +9201,7 @@
         <v>0.007</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0820528952500346</v>
+        <v>0.081974551747363</v>
       </c>
       <c r="H109" t="n">
         <v>0.6398</v>
@@ -9212,7 +9212,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.0007</v>
+        <v>0.00088</v>
       </c>
       <c r="M109" t="n">
         <v>0.1933</v>
@@ -9282,7 +9282,7 @@
         <v>0.007</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0820528952500346</v>
+        <v>0.081974551747363</v>
       </c>
       <c r="H110" t="n">
         <v>0.6398</v>
@@ -9293,7 +9293,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.0007</v>
+        <v>0.00088</v>
       </c>
       <c r="M110" t="n">
         <v>0.1933</v>
@@ -9436,10 +9436,10 @@
         <v>0.027</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0966046664084719</v>
+        <v>0.0966742512594075</v>
       </c>
       <c r="H112" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I112" t="n">
         <v>0.3381</v>
@@ -9450,10 +9450,10 @@
         <v>0.008</v>
       </c>
       <c r="M112" t="n">
-        <v>0.22358</v>
+        <v>0.22387</v>
       </c>
       <c r="N112" t="n">
-        <v>0.30434</v>
+        <v>0.30443</v>
       </c>
       <c r="O112" t="n">
         <v>1879408</v>
@@ -9513,10 +9513,10 @@
         <v>0.027</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0966046664084719</v>
+        <v>0.0966742512594075</v>
       </c>
       <c r="H113" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I113" t="n">
         <v>0.3381</v>
@@ -9527,10 +9527,10 @@
         <v>0.008</v>
       </c>
       <c r="M113" t="n">
-        <v>0.22358</v>
+        <v>0.22387</v>
       </c>
       <c r="N113" t="n">
-        <v>0.30434</v>
+        <v>0.30443</v>
       </c>
       <c r="O113" t="n">
         <v>1879408</v>
@@ -9979,7 +9979,7 @@
         <v>0.3</v>
       </c>
       <c r="G119" t="n">
-        <v>0.531809830305651</v>
+        <v>0.531753979050308</v>
       </c>
       <c r="H119" t="n">
         <v>2.45</v>
@@ -10060,7 +10060,7 @@
         <v>0.004</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0055530056752436</v>
+        <v>0.0055718365406236</v>
       </c>
       <c r="H120" t="n">
         <v>0.015</v>
@@ -10071,7 +10071,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00289</v>
+        <v>0.00295</v>
       </c>
       <c r="M120" t="n">
         <v>0.01</v>
@@ -10141,7 +10141,7 @@
         <v>0.004</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0055530056752436</v>
+        <v>0.0055718365406236</v>
       </c>
       <c r="H121" t="n">
         <v>0.015</v>
@@ -10152,7 +10152,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.00289</v>
+        <v>0.00295</v>
       </c>
       <c r="M121" t="n">
         <v>0.01</v>
@@ -10636,10 +10636,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.0048</v>
+        <v>0.00503</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0110859045105748</v>
+        <v>0.0111942259768069</v>
       </c>
       <c r="H127" t="n">
         <v>0.0715953393807474</v>
@@ -10650,7 +10650,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00409</v>
+        <v>0.00443</v>
       </c>
       <c r="M127" t="n">
         <v>0.02165</v>
@@ -10717,10 +10717,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.0048</v>
+        <v>0.00503</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0110859045105748</v>
+        <v>0.0111942259768069</v>
       </c>
       <c r="H128" t="n">
         <v>0.0715953393807474</v>
@@ -10731,7 +10731,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00409</v>
+        <v>0.00443</v>
       </c>
       <c r="M128" t="n">
         <v>0.02165</v>
@@ -10801,7 +10801,7 @@
         <v>0.0098</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0864548791937961</v>
+        <v>0.0864074858644405</v>
       </c>
       <c r="H129" t="n">
         <v>0.6398</v>
@@ -10812,7 +10812,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00096</v>
+        <v>0.001</v>
       </c>
       <c r="M129" t="n">
         <v>0.1937</v>
@@ -10882,7 +10882,7 @@
         <v>0.0098</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0864548791937961</v>
+        <v>0.0864074858644405</v>
       </c>
       <c r="H130" t="n">
         <v>0.6398</v>
@@ -10893,7 +10893,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.00096</v>
+        <v>0.001</v>
       </c>
       <c r="M130" t="n">
         <v>0.1937</v>
@@ -11033,13 +11033,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.027</v>
+        <v>0.0266</v>
       </c>
       <c r="G132" t="n">
-        <v>0.09939773750688501</v>
+        <v>0.0995030832614663</v>
       </c>
       <c r="H132" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I132" t="n">
         <v>0.41365</v>
@@ -11047,13 +11047,13 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.00751</v>
+        <v>0.008</v>
       </c>
       <c r="M132" t="n">
-        <v>0.21329</v>
+        <v>0.21334</v>
       </c>
       <c r="N132" t="n">
-        <v>0.30434</v>
+        <v>0.30443</v>
       </c>
       <c r="O132" t="n">
         <v>1879408</v>
@@ -11110,13 +11110,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.027</v>
+        <v>0.0266</v>
       </c>
       <c r="G133" t="n">
-        <v>0.09939773750688501</v>
+        <v>0.0995030832614663</v>
       </c>
       <c r="H133" t="n">
-        <v>0.677</v>
+        <v>0.6765</v>
       </c>
       <c r="I133" t="n">
         <v>0.41365</v>
@@ -11124,13 +11124,13 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.00751</v>
+        <v>0.008</v>
       </c>
       <c r="M133" t="n">
-        <v>0.21329</v>
+        <v>0.21334</v>
       </c>
       <c r="N133" t="n">
-        <v>0.30434</v>
+        <v>0.30443</v>
       </c>
       <c r="O133" t="n">
         <v>1879408</v>
@@ -11579,7 +11579,7 @@
         <v>0.3</v>
       </c>
       <c r="G139" t="n">
-        <v>0.554765937062587</v>
+        <v>0.554646066446028</v>
       </c>
       <c r="H139" t="n">
         <v>2.45</v>
@@ -11660,7 +11660,7 @@
         <v>0.005</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0063689667610899</v>
+        <v>0.0063930551590415</v>
       </c>
       <c r="H140" t="n">
         <v>0.029</v>
@@ -11671,7 +11671,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00329</v>
+        <v>0.00335</v>
       </c>
       <c r="M140" t="n">
         <v>0.011</v>
@@ -11741,7 +11741,7 @@
         <v>0.005</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0063689667610899</v>
+        <v>0.0063930551590415</v>
       </c>
       <c r="H141" t="n">
         <v>0.029</v>
@@ -11752,7 +11752,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00329</v>
+        <v>0.00335</v>
       </c>
       <c r="M141" t="n">
         <v>0.011</v>
@@ -12236,10 +12236,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.00652</v>
+        <v>0.00683</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0125193088364769</v>
+        <v>0.0126595812643658</v>
       </c>
       <c r="H147" t="n">
         <v>0.0715953393807474</v>
@@ -12250,7 +12250,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00643</v>
+        <v>0.00676</v>
       </c>
       <c r="M147" t="n">
         <v>0.02198</v>
@@ -12317,10 +12317,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.00652</v>
+        <v>0.00683</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0125193088364769</v>
+        <v>0.0126595812643658</v>
       </c>
       <c r="H148" t="n">
         <v>0.0715953393807474</v>
@@ -12331,7 +12331,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>0.00643</v>
+        <v>0.00676</v>
       </c>
       <c r="M148" t="n">
         <v>0.02198</v>
@@ -12401,7 +12401,7 @@
         <v>0.0121</v>
       </c>
       <c r="G149" t="n">
-        <v>0.104920438699997</v>
+        <v>0.104911837056668</v>
       </c>
       <c r="H149" t="n">
         <v>1.36</v>
@@ -12412,7 +12412,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.00106</v>
+        <v>0.001</v>
       </c>
       <c r="M149" t="n">
         <v>0.20652</v>
@@ -12482,7 +12482,7 @@
         <v>0.0121</v>
       </c>
       <c r="G150" t="n">
-        <v>0.104920438699997</v>
+        <v>0.104911837056668</v>
       </c>
       <c r="H150" t="n">
         <v>1.36</v>
@@ -12493,7 +12493,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00106</v>
+        <v>0.001</v>
       </c>
       <c r="M150" t="n">
         <v>0.20652</v>
@@ -12636,7 +12636,7 @@
         <v>0.03</v>
       </c>
       <c r="G152" t="n">
-        <v>0.117602552346832</v>
+        <v>0.117714214810776</v>
       </c>
       <c r="H152" t="n">
         <v>1.365</v>
@@ -12650,7 +12650,7 @@
         <v>0.008</v>
       </c>
       <c r="M152" t="n">
-        <v>0.22358</v>
+        <v>0.22387</v>
       </c>
       <c r="N152" t="n">
         <v>0.3401</v>
@@ -12713,7 +12713,7 @@
         <v>0.03</v>
       </c>
       <c r="G153" t="n">
-        <v>0.117602552346832</v>
+        <v>0.117714214810776</v>
       </c>
       <c r="H153" t="n">
         <v>1.365</v>
@@ -12727,7 +12727,7 @@
         <v>0.008</v>
       </c>
       <c r="M153" t="n">
-        <v>0.22358</v>
+        <v>0.22387</v>
       </c>
       <c r="N153" t="n">
         <v>0.3401</v>
@@ -13179,7 +13179,7 @@
         <v>0.3</v>
       </c>
       <c r="G159" t="n">
-        <v>0.691687000152553</v>
+        <v>0.700325352055013</v>
       </c>
       <c r="H159" t="n">
         <v>2.5</v>
@@ -13257,10 +13257,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.00433</v>
+        <v>0.00437</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0068624571697594</v>
+        <v>0.0068902229104208</v>
       </c>
       <c r="H160" t="n">
         <v>0.031</v>
@@ -13271,7 +13271,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00333</v>
+        <v>0.00338</v>
       </c>
       <c r="M160" t="n">
         <v>0.012</v>
@@ -13338,10 +13338,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.00433</v>
+        <v>0.00437</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0068624571697594</v>
+        <v>0.0068902229104208</v>
       </c>
       <c r="H161" t="n">
         <v>0.031</v>
@@ -13352,7 +13352,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00333</v>
+        <v>0.00338</v>
       </c>
       <c r="M161" t="n">
         <v>0.012</v>
@@ -13836,10 +13836,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.00885</v>
+        <v>0.00906</v>
       </c>
       <c r="G167" t="n">
-        <v>0.012082341335262</v>
+        <v>0.0122523509029912</v>
       </c>
       <c r="H167" t="n">
         <v>0.0433297258146195</v>
@@ -13850,7 +13850,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00742</v>
+        <v>0.00773</v>
       </c>
       <c r="M167" t="n">
         <v>0.02121</v>
@@ -13917,10 +13917,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.00885</v>
+        <v>0.00906</v>
       </c>
       <c r="G168" t="n">
-        <v>0.012082341335262</v>
+        <v>0.0122523509029912</v>
       </c>
       <c r="H168" t="n">
         <v>0.0433297258146195</v>
@@ -13931,7 +13931,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00742</v>
+        <v>0.00773</v>
       </c>
       <c r="M168" t="n">
         <v>0.02121</v>
@@ -14001,7 +14001,7 @@
         <v>0.02255</v>
       </c>
       <c r="G169" t="n">
-        <v>0.144025504119495</v>
+        <v>0.144140089070661</v>
       </c>
       <c r="H169" t="n">
         <v>2.16</v>
@@ -14012,7 +14012,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.00111</v>
+        <v>0.0016</v>
       </c>
       <c r="M169" t="n">
         <v>0.2511</v>
@@ -14082,7 +14082,7 @@
         <v>0.02255</v>
       </c>
       <c r="G170" t="n">
-        <v>0.144025504119495</v>
+        <v>0.144140089070661</v>
       </c>
       <c r="H170" t="n">
         <v>2.16</v>
@@ -14093,7 +14093,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.00111</v>
+        <v>0.0016</v>
       </c>
       <c r="M170" t="n">
         <v>0.2511</v>
@@ -14236,7 +14236,7 @@
         <v>0.0325</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1575013550438</v>
+        <v>0.157595999094128</v>
       </c>
       <c r="H172" t="n">
         <v>2.165</v>
@@ -14313,7 +14313,7 @@
         <v>0.0325</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1575013550438</v>
+        <v>0.157595999094128</v>
       </c>
       <c r="H173" t="n">
         <v>2.165</v>
@@ -14776,10 +14776,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.4788</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="n">
-        <v>0.790147862670006</v>
+        <v>0.798839126288055</v>
       </c>
       <c r="H179" t="n">
         <v>2.5</v>
@@ -14860,7 +14860,7 @@
         <v>0.004</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0065334154444587</v>
+        <v>0.0065562288343701</v>
       </c>
       <c r="H180" t="n">
         <v>0.031</v>
@@ -14871,7 +14871,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.00333</v>
+        <v>0.00338</v>
       </c>
       <c r="M180" t="n">
         <v>0.01094</v>
@@ -14941,7 +14941,7 @@
         <v>0.004</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0065334154444587</v>
+        <v>0.0065562288343701</v>
       </c>
       <c r="H181" t="n">
         <v>0.031</v>
@@ -14952,7 +14952,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00333</v>
+        <v>0.00338</v>
       </c>
       <c r="M181" t="n">
         <v>0.01094</v>
@@ -15436,10 +15436,10 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.00885</v>
+        <v>0.00906</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0116594436811727</v>
+        <v>0.0118237223790895</v>
       </c>
       <c r="H187" t="n">
         <v>0.0433297258146195</v>
@@ -15450,7 +15450,7 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>0.00814</v>
+        <v>0.00844</v>
       </c>
       <c r="M187" t="n">
         <v>0.01999</v>
@@ -15517,10 +15517,10 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.00885</v>
+        <v>0.00906</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0116594436811727</v>
+        <v>0.0118237223790895</v>
       </c>
       <c r="H188" t="n">
         <v>0.0433297258146195</v>
@@ -15531,7 +15531,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.00814</v>
+        <v>0.00844</v>
       </c>
       <c r="M188" t="n">
         <v>0.01999</v>
@@ -15601,7 +15601,7 @@
         <v>0.012</v>
       </c>
       <c r="G189" t="n">
-        <v>0.147326219750345</v>
+        <v>0.147567945931436</v>
       </c>
       <c r="H189" t="n">
         <v>2.16</v>
@@ -15612,7 +15612,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.00162</v>
+        <v>0.00208</v>
       </c>
       <c r="M189" t="n">
         <v>0.25739</v>
@@ -15682,7 +15682,7 @@
         <v>0.012</v>
       </c>
       <c r="G190" t="n">
-        <v>0.147326219750345</v>
+        <v>0.147567945931436</v>
       </c>
       <c r="H190" t="n">
         <v>2.16</v>
@@ -15693,7 +15693,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>0.00162</v>
+        <v>0.00208</v>
       </c>
       <c r="M190" t="n">
         <v>0.25739</v>
@@ -15836,7 +15836,7 @@
         <v>0.03</v>
       </c>
       <c r="G192" t="n">
-        <v>0.160063384282707</v>
+        <v>0.160145560008476</v>
       </c>
       <c r="H192" t="n">
         <v>2.165</v>
@@ -15847,7 +15847,7 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.00829</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M192" t="n">
         <v>0.27145</v>
@@ -15913,7 +15913,7 @@
         <v>0.03</v>
       </c>
       <c r="G193" t="n">
-        <v>0.160063384282707</v>
+        <v>0.160145560008476</v>
       </c>
       <c r="H193" t="n">
         <v>2.165</v>
@@ -15924,7 +15924,7 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>0.00829</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M193" t="n">
         <v>0.27145</v>
@@ -16362,7 +16362,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -16376,10 +16376,10 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G199" t="n">
-        <v>0.911410383666866</v>
+        <v>0.919745905833789</v>
       </c>
       <c r="H199" t="n">
         <v>3</v>
@@ -16457,10 +16457,10 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.00404</v>
+        <v>0.00408</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0067022076446729</v>
+        <v>0.0067155324384573</v>
       </c>
       <c r="H200" t="n">
         <v>0.031</v>
@@ -16471,7 +16471,7 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>0.00369</v>
+        <v>0.00374</v>
       </c>
       <c r="M200" t="n">
         <v>0.012</v>
@@ -16538,10 +16538,10 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.00404</v>
+        <v>0.00408</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0067022076446729</v>
+        <v>0.0067155324384573</v>
       </c>
       <c r="H201" t="n">
         <v>0.031</v>
@@ -16552,7 +16552,7 @@
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>0.00369</v>
+        <v>0.00374</v>
       </c>
       <c r="M201" t="n">
         <v>0.012</v>
@@ -17036,10 +17036,10 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.009719999999999999</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0180125606894101</v>
+        <v>0.0181317512609324</v>
       </c>
       <c r="H207" t="n">
         <v>0.33</v>
@@ -17050,7 +17050,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.00844</v>
+        <v>0.00882</v>
       </c>
       <c r="M207" t="n">
         <v>0.02118</v>
@@ -17117,10 +17117,10 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.009719999999999999</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0180125606894101</v>
+        <v>0.0181317512609324</v>
       </c>
       <c r="H208" t="n">
         <v>0.33</v>
@@ -17131,7 +17131,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>0.00844</v>
+        <v>0.00882</v>
       </c>
       <c r="M208" t="n">
         <v>0.02118</v>
@@ -17201,7 +17201,7 @@
         <v>0.008</v>
       </c>
       <c r="G209" t="n">
-        <v>0.151688881769779</v>
+        <v>0.152037291566939</v>
       </c>
       <c r="H209" t="n">
         <v>2.16</v>
@@ -17212,7 +17212,7 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>0.00254</v>
+        <v>0.0035</v>
       </c>
       <c r="M209" t="n">
         <v>0.25739</v>
@@ -17282,7 +17282,7 @@
         <v>0.008</v>
       </c>
       <c r="G210" t="n">
-        <v>0.151688881769779</v>
+        <v>0.152037291566939</v>
       </c>
       <c r="H210" t="n">
         <v>2.16</v>
@@ -17293,7 +17293,7 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>0.00254</v>
+        <v>0.0035</v>
       </c>
       <c r="M210" t="n">
         <v>0.25739</v>
@@ -17436,7 +17436,7 @@
         <v>0.015</v>
       </c>
       <c r="G212" t="n">
-        <v>0.165430609907257</v>
+        <v>0.16549117154818</v>
       </c>
       <c r="H212" t="n">
         <v>2.165</v>
@@ -17447,7 +17447,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>0.009350000000000001</v>
+        <v>0.0097</v>
       </c>
       <c r="M212" t="n">
         <v>0.27145</v>
@@ -17513,7 +17513,7 @@
         <v>0.015</v>
       </c>
       <c r="G213" t="n">
-        <v>0.165430609907257</v>
+        <v>0.16549117154818</v>
       </c>
       <c r="H213" t="n">
         <v>2.165</v>
@@ -17524,7 +17524,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
-        <v>0.009350000000000001</v>
+        <v>0.0097</v>
       </c>
       <c r="M213" t="n">
         <v>0.27145</v>
@@ -17962,7 +17962,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -17976,10 +17976,10 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="G219" t="n">
-        <v>0.955361079545312</v>
+        <v>0.964408735305744</v>
       </c>
       <c r="H219" t="n">
         <v>3</v>
@@ -18057,10 +18057,10 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0.00408</v>
+        <v>0.00412</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0077244462101146</v>
+        <v>0.0077347225690454</v>
       </c>
       <c r="H220" t="n">
         <v>0.031</v>
@@ -18071,7 +18071,7 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>0.0039</v>
+        <v>0.00393</v>
       </c>
       <c r="M220" t="n">
         <v>0.01464</v>
@@ -18138,10 +18138,10 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0.00408</v>
+        <v>0.00412</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0077244462101146</v>
+        <v>0.0077347225690454</v>
       </c>
       <c r="H221" t="n">
         <v>0.031</v>
@@ -18152,7 +18152,7 @@
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
-        <v>0.0039</v>
+        <v>0.00393</v>
       </c>
       <c r="M221" t="n">
         <v>0.01464</v>
@@ -18636,10 +18636,10 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0.009390000000000001</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0201322196001543</v>
+        <v>0.0202154596210492</v>
       </c>
       <c r="H227" t="n">
         <v>0.33</v>
@@ -18650,7 +18650,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
-        <v>0.00825</v>
+        <v>0.00844</v>
       </c>
       <c r="M227" t="n">
         <v>0.02312</v>
@@ -18717,10 +18717,10 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0.009390000000000001</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0201322196001543</v>
+        <v>0.0202154596210492</v>
       </c>
       <c r="H228" t="n">
         <v>0.33</v>
@@ -18731,7 +18731,7 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>0.00825</v>
+        <v>0.00844</v>
       </c>
       <c r="M228" t="n">
         <v>0.02312</v>
@@ -18801,7 +18801,7 @@
         <v>0.027</v>
       </c>
       <c r="G229" t="n">
-        <v>0.175280961989828</v>
+        <v>0.175661909607448</v>
       </c>
       <c r="H229" t="n">
         <v>2.16</v>
@@ -18812,7 +18812,7 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
-        <v>0.00308</v>
+        <v>0.0044</v>
       </c>
       <c r="M229" t="n">
         <v>0.32124</v>
@@ -18882,7 +18882,7 @@
         <v>0.027</v>
       </c>
       <c r="G230" t="n">
-        <v>0.175280961989828</v>
+        <v>0.175661909607448</v>
       </c>
       <c r="H230" t="n">
         <v>2.16</v>
@@ -18893,7 +18893,7 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>0.00308</v>
+        <v>0.0044</v>
       </c>
       <c r="M230" t="n">
         <v>0.32124</v>
@@ -19036,7 +19036,7 @@
         <v>0.041</v>
       </c>
       <c r="G232" t="n">
-        <v>0.19149286647633</v>
+        <v>0.191529222837429</v>
       </c>
       <c r="H232" t="n">
         <v>2.165</v>
@@ -19047,7 +19047,7 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
-        <v>0.01154</v>
+        <v>0.01218</v>
       </c>
       <c r="M232" t="n">
         <v>0.3532</v>
@@ -19113,7 +19113,7 @@
         <v>0.041</v>
       </c>
       <c r="G233" t="n">
-        <v>0.19149286647633</v>
+        <v>0.191529222837429</v>
       </c>
       <c r="H233" t="n">
         <v>2.165</v>
@@ -19124,7 +19124,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>0.01154</v>
+        <v>0.01218</v>
       </c>
       <c r="M233" t="n">
         <v>0.3532</v>
@@ -19472,6 +19472,1375 @@
         </is>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 2)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.865036518983486</v>
+      </c>
+      <c r="H238" t="n">
+        <v>3</v>
+      </c>
+      <c r="I238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.007967094819292499</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.01364</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.01954</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.007967094819292499</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.01364</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.01954</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>210</v>
+      </c>
+      <c r="G241" t="n">
+        <v>4127.00081504584</v>
+      </c>
+      <c r="H241" t="n">
+        <v>170000</v>
+      </c>
+      <c r="I241" t="n">
+        <v>7560</v>
+      </c>
+      <c r="J241" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K241" t="n">
+        <v>42.5925925925926</v>
+      </c>
+      <c r="L241" t="n">
+        <v>135</v>
+      </c>
+      <c r="M241" t="n">
+        <v>2032</v>
+      </c>
+      <c r="N241" t="n">
+        <v>4806</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>210</v>
+      </c>
+      <c r="G242" t="n">
+        <v>4127.00081504584</v>
+      </c>
+      <c r="H242" t="n">
+        <v>170000</v>
+      </c>
+      <c r="I242" t="n">
+        <v>7560</v>
+      </c>
+      <c r="J242" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K242" t="n">
+        <v>42.5925925925926</v>
+      </c>
+      <c r="L242" t="n">
+        <v>135</v>
+      </c>
+      <c r="M242" t="n">
+        <v>2032</v>
+      </c>
+      <c r="N242" t="n">
+        <v>4806</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>210</v>
+      </c>
+      <c r="G243" t="n">
+        <v>4127.00081504584</v>
+      </c>
+      <c r="H243" t="n">
+        <v>170000</v>
+      </c>
+      <c r="I243" t="n">
+        <v>7560</v>
+      </c>
+      <c r="J243" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K243" t="n">
+        <v>42.5925925925926</v>
+      </c>
+      <c r="L243" t="n">
+        <v>135</v>
+      </c>
+      <c r="M243" t="n">
+        <v>2032</v>
+      </c>
+      <c r="N243" t="n">
+        <v>4806</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>210</v>
+      </c>
+      <c r="G244" t="n">
+        <v>4127.00081504584</v>
+      </c>
+      <c r="H244" t="n">
+        <v>170000</v>
+      </c>
+      <c r="I244" t="n">
+        <v>7560</v>
+      </c>
+      <c r="J244" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K244" t="n">
+        <v>42.5925925925926</v>
+      </c>
+      <c r="L244" t="n">
+        <v>135</v>
+      </c>
+      <c r="M244" t="n">
+        <v>2032</v>
+      </c>
+      <c r="N244" t="n">
+        <v>4806</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.00975</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0226318745265107</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.05095</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.008160000000000001</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.03032</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.04136</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.00975</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.0226318745265107</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.05095</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.008160000000000001</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.03032</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.04136</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.15528607531183</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.4416</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.3916</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.15528607531183</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.4416</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.3916</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.173180023552072</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.5125999999999999</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.30632</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.40734</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.173180023552072</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.5125999999999999</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.30632</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.40734</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.644074074074074</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.8532</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1.2072</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.644074074074074</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.8532</v>
+      </c>
+      <c r="N252" t="n">
+        <v>1.2072</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.124555555555556</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.4838</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.14024</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.33142</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Owahanga at Branscombe Bridge</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.124555555555556</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.4838</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.14024</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.33142</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1879408</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5496982</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
+++ b/state_results/Rivers/OwahangaatBranscombeBridge_cf544bc014.xlsx
@@ -1388,13 +1388,13 @@
         <v>0.475</v>
       </c>
       <c r="G12" t="n">
-        <v>0.708548416517092</v>
+        <v>0.725006571267568</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.68424</v>
+        <v>3.0516</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.97987</v>
+        <v>1.998</v>
       </c>
       <c r="O12" t="n">
         <v>1879408</v>
@@ -2287,13 +2287,13 @@
         <v>0.32</v>
       </c>
       <c r="G23" t="n">
-        <v>0.63819679655299</v>
+        <v>0.650704994163352</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.66059</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -3656,13 +3656,13 @@
         <v>0.34</v>
       </c>
       <c r="G40" t="n">
-        <v>0.659717504570945</v>
+        <v>0.671980443404633</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.64856</v>
+        <v>2.686</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -5179,13 +5179,13 @@
         <v>0.33</v>
       </c>
       <c r="G59" t="n">
-        <v>0.63312439119091</v>
+        <v>0.644924577615779</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>2.6245</v>
+        <v>2.658</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -13179,7 +13179,7 @@
         <v>0.3</v>
       </c>
       <c r="G159" t="n">
-        <v>0.700325352055013</v>
+        <v>0.685073203471921</v>
       </c>
       <c r="H159" t="n">
         <v>2.5</v>
@@ -14776,10 +14776,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G179" t="n">
-        <v>0.798839126288055</v>
+        <v>0.783586977704962</v>
       </c>
       <c r="H179" t="n">
         <v>2.5</v>
@@ -16362,7 +16362,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -16376,10 +16376,10 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G199" t="n">
-        <v>0.919745905833789</v>
+        <v>0.905010779236565</v>
       </c>
       <c r="H199" t="n">
         <v>3</v>
@@ -17962,7 +17962,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -17976,10 +17976,10 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G219" t="n">
-        <v>0.964408735305744</v>
+        <v>0.9483092451347021</v>
       </c>
       <c r="H219" t="n">
         <v>3</v>
@@ -19499,10 +19499,10 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G238" t="n">
-        <v>0.865036518983486</v>
+        <v>0.848317817652019</v>
       </c>
       <c r="H238" t="n">
         <v>3</v>
